--- a/NYSE_profit_식품 및 담배.xlsx
+++ b/NYSE_profit_식품 및 담배.xlsx
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.719955444335938</v>
+        <v>2.719959259033203</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333229064941406</v>
+        <v>1.333232879638672</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -757,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-5.600381851196289</v>
+        <v>-5.600385665893555</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -797,7 +797,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-8.305206298828125</v>
+        <v>-8.305198669433594</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -829,7 +829,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-12.66373443603516</v>
+        <v>-12.66372680664062</v>
       </c>
     </row>
     <row r="41" spans="1:2">
